--- a/Чек-лист aliexpress.xlsx
+++ b/Чек-лист aliexpress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaste\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaste\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>сайт Aliexpress.ru</t>
   </si>
@@ -86,14 +86,20 @@
     <t>Ввод верификационного пароля</t>
   </si>
   <si>
-    <t>успешно</t>
+    <t>Без ошибок</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Частые краши из-за ReCaptcha / Неблокируемой рекламы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,15 +387,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -393,71 +446,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,516 +780,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="28" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A8:R8"/>
     <mergeCell ref="O9:R12"/>
     <mergeCell ref="A13:R13"/>
@@ -1265,52 +1377,26 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Чек-лист aliexpress.xlsx
+++ b/Чек-лист aliexpress.xlsx
@@ -389,6 +389,27 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -398,10 +419,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,91 +476,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,560 +783,582 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="37" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="32" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="35" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="35" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="35" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="36" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="29" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="U10" s="31"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="13" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="O9:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:R18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="O3:R7"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -1353,50 +1375,28 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="O9:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:R18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
